--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,17 +7,22 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="손상현황표" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="시설물 현황" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="손상현황표" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'손상현황표'!$A$2:$J$4</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -27,12 +32,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCCC"/>
+        <bgColor rgb="00CCCCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -47,8 +58,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -417,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,159 +445,203 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
+      <c r="A2" s="1" t="n"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>층수</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>위치</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>부재</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>점검내용</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>개소</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>현황번호</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>진행유무</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>발생원인</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>비고</t>
-        </is>
-      </c>
+          <t>□ 시설물 현황</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>옥탑층</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>물탱크실</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>벽재</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>0.2* 4,500 수직</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 </t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>신규</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>건조수축</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>사진1</t>
-        </is>
-      </c>
+          <t>가. 일반현황</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>5층</t>
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>시설물명</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>복도</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>슬래브</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>텍스누스흔적</t>
+          <t>정부춘천지방합동청사</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>시설물번호</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>신규</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>우수유입</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>사진5</t>
-        </is>
-      </c>
+          <t>강원도 춘천시 후평동 후석고 440번길 64</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>시설물위치</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>강원도 춘천시 후평동 후석고 440번길 64</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>준공일자</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>38877</v>
+      </c>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>용도</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>공공업무시설</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>시설물규모</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>지하1층, 지상5층</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>구조형식</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>철근콘크리트구조</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>부대시설</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>종별</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>3층</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>전차안전등급</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>B등급</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>점검결과안전등급</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>B등급(8.7점)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>규모 및 제원 추가사항</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr"/>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -598,4 +662,139 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>층수</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>위치</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>부재</t>
+        </is>
+      </c>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>점검내용</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>개소</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>현황번호</t>
+        </is>
+      </c>
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <t>진행유무</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>발생원인</t>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>옥탑층</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>물탱크실</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>벽제</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>0.2*4500 수직</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>복도</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>우수유입</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>사진5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="inlineStr"/>
+      <c r="G4" s="4" t="inlineStr"/>
+      <c r="H4" s="4" t="inlineStr"/>
+      <c r="I4" s="4" t="inlineStr"/>
+      <c r="J4" s="4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,10 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="손상현황표" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="손상현황표" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'손상현황표'!$A$2:$J$4</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -417,167 +419,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>층수</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>위치</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>부재</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>점검내용</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>개소</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>현황번호</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>진행유무</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>발생원인</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>비고</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>옥탑층</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>물탱크실</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>벽재</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>0.2* 4,500 수직</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 </t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>신규</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>건조수축</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>사진1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>5층</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>복도</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>슬래브</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>텍스누스흔적</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>신규</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>우수유입</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>사진5</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -588,14 +437,170 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="13" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>층수</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>위치</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>부재</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>점검내용</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>개소</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>현황번호</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>진행유무</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>발생원인</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>비고</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>옥탑층</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>물탱크실</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>벽재</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>0.2* 4,500 수직</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>신규</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>건조수축</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>사진1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>5층</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>복도</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>슬래브</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>텍스누스흔적</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>신규</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>우수유입</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>사진5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="손상현황표" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="시설물 현황" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="손상현황표" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'손상현황표'!$A$2:$J$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'손상현황표'!$A$2:$J$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -29,12 +32,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CCCCCC"/>
+        <bgColor rgb="00CCCCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +58,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -419,6 +437,225 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>□ 시설물 현황</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n"/>
+      <c r="D2" s="1" t="n"/>
+      <c r="E2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>가. 일반현황</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>시설물명</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>정부춘천</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>시설물번호</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>AR2003-0009512</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>시설물위치</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>AR2003-0009512</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>준공일자</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>44559</v>
+      </c>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>용도</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>공공업무</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>시설물규모</t>
+        </is>
+      </c>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>지하1층</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>구조형식</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>철근</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>부대시설</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>종별</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>3층</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>전차안전등급</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>b등급</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>점검결과안전등급</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>b등급(8.7점)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>규모 및 제원 추가사항</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>없음</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n"/>
+      <c r="D10" s="1" t="n"/>
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -431,13 +668,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J4"/>
+  <dimension ref="A2:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,156 +686,102 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>구분</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>층수</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>위치</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>부재</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>점검내용</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>개소</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>현황번호</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>진행유무</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I2" s="4" t="inlineStr">
         <is>
           <t>발생원인</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>비고</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>5층</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>옥탑층</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>물탱크실</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>벽재</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>0.2* 4,500 수직</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 </t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>0.2x3500 수직, 수평</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>신규</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>건조수축</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>사진1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>5층</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>복도</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>슬래브</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>텍스누스흔적</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>신규</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>우수유입</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>사진5</t>
-        </is>
-      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>모름</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -148,6 +148,36 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5029200" cy="2847975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -432,12 +462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,6 +663,28 @@
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>나. 전경사진</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C4:D4"/>
@@ -647,6 +699,7 @@
     <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="시설물 현황" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="손상현황표" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="시설물 현황" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="손상현황표" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'손상현황표'!$A$2:$J$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'손상현황표'!$A$2:$J$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -148,6 +148,36 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7639050" cy="5857875"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -437,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +519,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>정부춘천</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="D4" s="1" t="n"/>
@@ -500,7 +530,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>AR2003-0009512</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
@@ -514,7 +544,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>AR2003-0009512</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="D5" s="1" t="n"/>
@@ -524,7 +554,7 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>44559</v>
+        <v>44582</v>
       </c>
       <c r="G5" s="1" t="n"/>
     </row>
@@ -537,7 +567,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>공공업무</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="D6" s="1" t="n"/>
@@ -548,7 +578,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>지하1층</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="G6" s="1" t="n"/>
@@ -562,7 +592,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>철근</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="D7" s="1" t="n"/>
@@ -571,7 +601,11 @@
           <t>부대시설</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
       <c r="G7" s="1" t="n"/>
     </row>
     <row r="8">
@@ -583,7 +617,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>3층</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -593,7 +627,7 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>b등급</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -603,7 +637,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>b등급(8.7점)</t>
+          <t>이상민</t>
         </is>
       </c>
     </row>
@@ -624,7 +658,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>이상민</t>
         </is>
       </c>
       <c r="C10" s="1" t="n"/>
@@ -632,6 +666,28 @@
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
       <c r="G10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="n"/>
+      <c r="D11" s="1" t="n"/>
+      <c r="E11" s="1" t="n"/>
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>나. 전경사진</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n"/>
+      <c r="D12" s="1" t="n"/>
+      <c r="E12" s="1" t="n"/>
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -647,6 +703,7 @@
     <mergeCell ref="B10:G10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -674,7 +731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J3"/>
+  <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,47 +798,65 @@
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>5층</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>옥탑층</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>벽재</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>0.2x3500 수직, 수평</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr"/>
+      <c r="C3" s="4" t="inlineStr"/>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr"/>
+      <c r="F3" s="4" t="inlineStr"/>
+      <c r="G3" s="4" t="inlineStr"/>
+      <c r="H3" s="4" t="inlineStr"/>
+      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>신규</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>모름</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+      <c r="I4" s="4" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
+      <c r="J4" s="4" t="inlineStr">
+        <is>
+          <t>이상민</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -175,6 +175,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5029200" cy="2847975"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -469,7 +494,7 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -729,7 +754,7 @@
   </sheetPr>
   <dimension ref="A2:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -155,7 +155,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5029200" cy="2847975"/>
+    <ext cx="2771775" cy="1647825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -180,7 +180,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5029200" cy="2847975"/>
+    <ext cx="2771775" cy="1647825"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -210,7 +210,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2000250" cy="1485900"/>
+    <ext cx="2000250" cy="2000250"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -235,7 +235,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2000250" cy="1571625"/>
+    <ext cx="2000250" cy="800100"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -243,156 +243,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2000250" cy="1504950"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>11</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2000250" cy="1190625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2000250" cy="1495425"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>21</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2000250" cy="1571625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2000250" cy="1495425"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2000250" cy="1571625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -747,7 +597,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>정부춘천</t>
+          <t>정부춘천지방함동청사</t>
         </is>
       </c>
       <c r="D4" s="1" t="n"/>
@@ -758,7 +608,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>AR2003-0009512</t>
+          <t>AR2003-0009511</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
@@ -772,7 +622,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>AR2003-0009512</t>
+          <t>AR2003-0009511</t>
         </is>
       </c>
       <c r="D5" s="1" t="n"/>
@@ -782,7 +632,7 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>44559</v>
+        <v>37981</v>
       </c>
       <c r="G5" s="1" t="n"/>
     </row>
@@ -795,7 +645,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>공공업무</t>
+          <t>공공업무시설</t>
         </is>
       </c>
       <c r="D6" s="1" t="n"/>
@@ -806,7 +656,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>지하1층</t>
+          <t>지하1층, 지상5층</t>
         </is>
       </c>
       <c r="G6" s="1" t="n"/>
@@ -820,7 +670,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>철근</t>
+          <t>철근콘트리트구조</t>
         </is>
       </c>
       <c r="D7" s="1" t="n"/>
@@ -829,7 +679,11 @@
           <t>부대시설</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G7" s="1" t="n"/>
     </row>
     <row r="8">
@@ -851,7 +705,7 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>b등급</t>
+          <t>B등급</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -861,7 +715,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>b등급(8.7점)</t>
+          <t>B등급(8.7점)</t>
         </is>
       </c>
     </row>
@@ -882,7 +736,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>없음</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C10" s="1" t="n"/>
@@ -956,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J4"/>
+  <dimension ref="A2:J3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1025,12 +879,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>5층</t>
+          <t>옥탑층이냐?</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>옥탑층</t>
+          <t>물탱크실임 ㅋ</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1040,17 +894,17 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>0.2x3500 수직, 수평</t>
+          <t>0.2* 4,500 수직</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t xml:space="preserve">1 </t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
@@ -1060,58 +914,12 @@
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>모름</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>dasads</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>dsadsads</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>dasas</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>dasadsa</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>saddsad</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>sadasas</t>
+          <t>건조수축</t>
+        </is>
+      </c>
+      <c r="J3" s="4" t="inlineStr">
+        <is>
+          <t>사진1</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -230,12 +230,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>2</col>
       <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2000250" cy="1571625"/>
+    <ext cx="2000250" cy="1524000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -257,7 +257,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2000250" cy="1504950"/>
@@ -280,9 +280,9 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>2</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2000250" cy="1190625"/>
@@ -307,7 +307,7 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>21</row>
+      <row>23</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2000250" cy="1495425"/>
@@ -330,12 +330,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>6</col>
+      <col>2</col>
       <colOff>0</colOff>
-      <row>21</row>
+      <row>23</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2000250" cy="1571625"/>
+    <ext cx="2000250" cy="1524000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -343,56 +343,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2000250" cy="1495425"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="7" name="Image 7" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>31</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2000250" cy="1571625"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -937,14 +887,124 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B9:B35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>사진번호: 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>위치: 5층옥탑층</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>점검내용: 0.2x3500 수직, 수평</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>발생원인: 모름</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>진행유무: 신규</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>사진번호: 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>위치: 5층옥탑층</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>점검내용: 0.2x3500 수직, 수평</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>발생원인: 모름</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>진행유무: 신규</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>사진번호: 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>위치: 5층옥탑층</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>점검내용: 0.2x3500 수직, 수평</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>발생원인: 모름</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>진행유무: 신규</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -956,7 +1016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J4"/>
+  <dimension ref="A2:J3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1065,56 +1125,6 @@
       </c>
       <c r="J3" s="4" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>c</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>dasads</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>dsadsads</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>dasas</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>dasadsa</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>saddsad</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>sadasas</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -293,6 +293,206 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="890538" cy="638175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="890538" cy="171450"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="890538" cy="971550"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="890538" cy="314325"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="890538" cy="638175"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="890538" cy="238125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="890538" cy="438150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="890538" cy="438150"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -841,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B10:F13"/>
+  <dimension ref="B10:F65"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -925,6 +1125,142 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>사진번호: 14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>사진번호: 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>위치: 123123</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>위치: 123123</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>점검내용: 12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>손상규모: 385.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>점검내용: 12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>손상규모: 4895.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>발생원인: 321321</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>진행유무: 32132</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>발생원인: 321321</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>진행유무: 32132</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>사진번호: 17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>사진번호: 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>위치: 12123</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>위치: 12123</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>점검내용: 21213</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>손상규모: 137.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>점검내용: 21213</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>손상규모: None</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>발생원인: 312321</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>진행유무: 32112321321</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>발생원인: 312321</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>진행유무: 32112321321</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -937,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J4"/>
+  <dimension ref="A2:J5"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,6 +1436,56 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>21213</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>12321321</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>32132</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>32112321321</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>312321</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -155,7 +155,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4762500" cy="3571875"/>
+    <ext cx="4762500" cy="2828925"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -180,7 +180,7 @@
       <row>42</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4762500" cy="2667000"/>
+    <ext cx="4762500" cy="2781300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -210,7 +210,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2047875" cy="1543050"/>
+    <ext cx="2047875" cy="1533525"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -235,7 +235,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="390525" cy="1543050"/>
+    <ext cx="2047875" cy="1657350"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -293,56 +293,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2047875" cy="1533525"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="5" name="Image 5" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>15</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2047875" cy="1647825"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -706,7 +656,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>정부춘천지방합동청사</t>
+          <t>정부춘천지방함동청사</t>
         </is>
       </c>
       <c r="D4" s="1" t="n"/>
@@ -741,7 +691,7 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>44602</v>
+        <v>37981</v>
       </c>
       <c r="G5" s="1" t="n"/>
     </row>
@@ -1174,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B10:F27"/>
+  <dimension ref="B10:F13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,46 +1143,46 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>사진번호: 2</t>
+          <t>사진번호: 13</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>사진번호: 3</t>
+          <t>사진번호: 14</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>위치: 3층물탱크실</t>
+          <t>위치: 옥탑층이냐?물탱크실임 ㅋ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>위치: 3층물탱크실</t>
+          <t>위치: 옥탑층이냐?물탱크실임 ㅋ</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>점검내용: 0.2*4500</t>
+          <t>점검내용: 0.2* 4,500 수직</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>손상규모: 924.68</t>
+          <t>손상규모: None</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>점검내용: 0.2*4500</t>
+          <t>점검내용: 0.2* 4,500 수직</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>손상규모: 932.45</t>
+          <t>손상규모: None</t>
         </is>
       </c>
     </row>
@@ -1255,44 +1205,6 @@
       <c r="F13" t="inlineStr">
         <is>
           <t>진행유무: 신규</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>사진번호: 4</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>위치: 옥탑층기계실</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>점검내용: 0.2*3500</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>손상규모: 1661.53</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>발생원인: 우수유입</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>진행유무: '</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1220,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J4"/>
+  <dimension ref="A2:J3"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,12 +1284,12 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>3층</t>
+          <t>옥탑층이냐?</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>물탱크실</t>
+          <t>물탱크실임 ㅋ</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
@@ -1387,19 +1299,19 @@
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>0.2*4500</t>
+          <t>0.2* 4,500 수직</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
+          <t xml:space="preserve">1 </t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
           <t>신규</t>
@@ -1413,56 +1325,6 @@
       <c r="J3" s="4" t="inlineStr">
         <is>
           <t>사진1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>옥탑층</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>기계실</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>벽재</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>0.2*3500</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
-        <is>
-          <t>'</t>
-        </is>
-      </c>
-      <c r="I4" s="4" t="inlineStr">
-        <is>
-          <t>우수유입</t>
-        </is>
-      </c>
-      <c r="J4" s="4" t="inlineStr">
-        <is>
-          <t>사진5</t>
         </is>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -155,7 +155,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4762500" cy="2828925"/>
+    <ext cx="4762500" cy="1704975"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -180,7 +180,7 @@
       <row>42</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4762500" cy="2781300"/>
+    <ext cx="4762500" cy="3609975"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -188,111 +188,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2047875" cy="1533525"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="1" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>2</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2047875" cy="1657350"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>4</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2047875" cy="1543050"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2047875" cy="1228725"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="4" name="Image 4" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -656,7 +551,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>정부춘천지방함동청사</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D4" s="1" t="n"/>
@@ -667,7 +562,7 @@
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>AR2003-0009511</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" s="1" t="n"/>
@@ -681,7 +576,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>AR2003-0009511</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" s="1" t="n"/>
@@ -691,7 +586,7 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>37981</v>
+        <v>-693593</v>
       </c>
       <c r="G5" s="1" t="n"/>
     </row>
@@ -704,7 +599,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>공공업무시설</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D6" s="1" t="n"/>
@@ -715,7 +610,7 @@
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>지하1층, 지상5층</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G6" s="1" t="n"/>
@@ -729,7 +624,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>철근콘트리트구조</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" s="1" t="n"/>
@@ -740,7 +635,7 @@
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G7" s="1" t="n"/>
@@ -754,7 +649,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>3층</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -764,7 +659,7 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>B등급</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -774,7 +669,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>B등급(8.7점)</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -795,7 +690,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" s="1" t="n"/>
@@ -1119,14 +1014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B10:F13"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1139,78 +1034,8 @@
     <col width="27" customWidth="1" min="5" max="5"/>
     <col width="27" customWidth="1" min="6" max="6"/>
   </cols>
-  <sheetData>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>사진번호: 13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>사진번호: 14</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>위치: 옥탑층이냐?물탱크실임 ㅋ</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>위치: 옥탑층이냐?물탱크실임 ㅋ</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>점검내용: 0.2* 4,500 수직</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>손상규모: None</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>점검내용: 0.2* 4,500 수직</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>손상규모: None</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>발생원인: 건조수축</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>진행유무: 신규</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>발생원인: 건조수축</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>진행유무: 신규</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1220,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:J3"/>
+  <dimension ref="A2:I2"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,56 +1103,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>옥탑층이냐?</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>물탱크실임 ㅋ</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>벽재</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>0.2* 4,500 수직</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1 </t>
-        </is>
-      </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="inlineStr">
-        <is>
-          <t>신규</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="inlineStr">
-        <is>
-          <t>건조수축</t>
-        </is>
-      </c>
-      <c r="J3" s="4" t="inlineStr">
-        <is>
-          <t>사진1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
